--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
@@ -9,36 +9,42 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102" sheetId="47" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="46" r:id="rId2"/>
-    <sheet name="TOP-1" sheetId="45" r:id="rId3"/>
-    <sheet name="TG102LE-4G" sheetId="44" r:id="rId4"/>
-    <sheet name="VNSH02" sheetId="43" r:id="rId5"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
+    <sheet name="TG102V" sheetId="49" r:id="rId1"/>
+    <sheet name="PhuKien" sheetId="48" r:id="rId2"/>
+    <sheet name="TG102" sheetId="47" r:id="rId3"/>
+    <sheet name="TG102SE" sheetId="46" r:id="rId4"/>
+    <sheet name="TOP-1" sheetId="45" r:id="rId5"/>
+    <sheet name="TG102LE-4G" sheetId="44" r:id="rId6"/>
+    <sheet name="VNSH02" sheetId="43" r:id="rId7"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">VNSH02!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">'TG102LE-4G'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">VNSH02!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">PhuKien!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="7">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'TOP-1'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="6">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -293,6 +299,105 @@
   <si>
     <t>2 thẻ RFID</t>
   </si>
+  <si>
+    <t>125.212.203.105,21083</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị sai cấu hình</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Le4.1.04.BOO01.221222</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220315</t>
+  </si>
+  <si>
+    <t>Le4.1.00.AOO02.210621</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>SL: 10</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ 64GB</t>
+  </si>
+  <si>
+    <t>Lỗi 7 thẻ, khắc phục lỗi 3 thẻ</t>
+  </si>
+  <si>
+    <t>Fomat lại 3 thẻ</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Sim  lỗi</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM, lỗi flash</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW thay flash</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +475,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -497,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,6 +838,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,40 +904,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1223,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1255,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1195,99 +1336,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="82" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,26 +1440,46 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="92">
-        <v>865904028279187</v>
+        <v>104</v>
+      </c>
+      <c r="E6" s="75">
+        <v>866192037820238</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="H6" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>109</v>
+      </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
       <c r="U6" s="83" t="s">
@@ -1333,20 +1494,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B7" s="67"/>
       <c r="C7" s="67"/>
-      <c r="D7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="92">
-        <v>867330022300381</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="68"/>
       <c r="J7" s="37"/>
@@ -1370,20 +1523,12 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B8" s="67"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="92">
-        <v>867330024350327</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
       <c r="J8" s="39"/>
@@ -1407,20 +1552,12 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B9" s="67"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="92">
-        <v>864161020990953</v>
-      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="64"/>
-      <c r="G9" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="G9" s="64"/>
       <c r="H9" s="1"/>
       <c r="I9" s="48"/>
       <c r="J9" s="39"/>
@@ -1444,20 +1581,12 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B10" s="67"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="92">
-        <v>866762026904209</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
       <c r="J10" s="39"/>
@@ -1481,20 +1610,12 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B11" s="67"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="92">
-        <v>866762024322040</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="37"/>
       <c r="I11" s="54"/>
       <c r="J11" s="39"/>
@@ -1518,20 +1639,12 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B12" s="59"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="92">
-        <v>864161026908140</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="1"/>
       <c r="I12" s="54"/>
       <c r="J12" s="1"/>
@@ -1557,20 +1670,12 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B13" s="59"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="92">
-        <v>862118021731168</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="1"/>
       <c r="I13" s="48"/>
       <c r="J13" s="1"/>
@@ -1594,20 +1699,12 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="92">
-        <v>865904028268610</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="12"/>
       <c r="I14" s="48"/>
       <c r="J14" s="1"/>
@@ -1750,7 +1847,9 @@
       <c r="F19" s="49"/>
       <c r="G19" s="37"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
+      <c r="I19" s="54" t="s">
+        <v>110</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1762,7 +1861,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="82" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1862,7 +1961,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1943,7 +2042,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="82" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2139,7 +2238,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2267,7 +2366,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2331,7 +2430,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2907,13 +3006,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2925,6 +3017,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2935,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2968,43 +3067,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3049,99 +3148,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,25 +3252,35 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="92">
-        <v>866104021784791</v>
+        <v>97</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>98</v>
       </c>
       <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="74"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="74" t="s">
+        <v>99</v>
+      </c>
       <c r="I6" s="68"/>
       <c r="J6" s="37"/>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>101</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
@@ -3187,20 +3296,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B7" s="67"/>
       <c r="C7" s="67"/>
-      <c r="D7" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="92">
-        <v>862631034802560</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="68"/>
       <c r="J7" s="37"/>
@@ -3224,20 +3325,12 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B8" s="67"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="92">
-        <v>861694031111675</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
       <c r="J8" s="39"/>
@@ -3261,22 +3354,12 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B9" s="67"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="92">
-        <v>863586032938692</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="1"/>
       <c r="I9" s="48"/>
       <c r="J9" s="39"/>
@@ -3300,20 +3383,12 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B10" s="67"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="92">
-        <v>862631037509907</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
       <c r="J10" s="39"/>
@@ -3337,20 +3412,12 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B11" s="67"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="92">
-        <v>861694031767906</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="37"/>
       <c r="I11" s="54"/>
       <c r="J11" s="39"/>
@@ -3374,22 +3441,12 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B12" s="59"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="92">
-        <v>862631034730613</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="1"/>
       <c r="I12" s="54"/>
       <c r="J12" s="1"/>
@@ -3415,20 +3472,12 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B13" s="59"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="92">
-        <v>863586032792446</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="1"/>
       <c r="I13" s="48"/>
       <c r="J13" s="1"/>
@@ -3452,22 +3501,12 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="92">
-        <v>861694031127853</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="12"/>
       <c r="I14" s="48"/>
       <c r="J14" s="1"/>
@@ -3491,20 +3530,12 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B15" s="59"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="92">
-        <v>862631034704824</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="1"/>
       <c r="I15" s="48"/>
       <c r="J15" s="1"/>
@@ -3528,20 +3559,12 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B16" s="59"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="92">
-        <v>861694031109448</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="1"/>
       <c r="I16" s="54"/>
       <c r="J16" s="1"/>
@@ -3565,20 +3588,12 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B17" s="59"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="92">
-        <v>866104022270592</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="1"/>
       <c r="I17" s="54"/>
       <c r="J17" s="1"/>
@@ -3646,7 +3661,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="78" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -3682,7 +3697,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3827,7 +3842,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="73" t="s">
+      <c r="U25" s="78" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -4820,7 +4835,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B6" sqref="B6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4852,43 +4867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4933,58 +4948,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -5015,17 +5030,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5037,10 +5052,10 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="92">
-        <v>868183037788622</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="77">
+        <v>865904028279187</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
@@ -5071,12 +5086,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="67">
+        <v>44985</v>
+      </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="77">
+        <v>867330022300381</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H7" s="64"/>
       <c r="I7" s="68"/>
       <c r="J7" s="37"/>
@@ -5100,12 +5123,20 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="67">
+        <v>44985</v>
+      </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="77">
+        <v>867330024350327</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
       <c r="J8" s="39"/>
@@ -5129,12 +5160,20 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="67">
+        <v>44985</v>
+      </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="77">
+        <v>864161020990953</v>
+      </c>
       <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="G9" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="48"/>
       <c r="J9" s="39"/>
@@ -5158,12 +5197,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="67">
+        <v>44985</v>
+      </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="77">
+        <v>866762026904209</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
       <c r="J10" s="39"/>
@@ -5187,12 +5234,20 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="67">
+        <v>44985</v>
+      </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="64"/>
+      <c r="D11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="77">
+        <v>866762024322040</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="54"/>
       <c r="J11" s="39"/>
@@ -5216,12 +5271,20 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="67">
+        <v>44985</v>
+      </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="77">
+        <v>864161026908140</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="54"/>
       <c r="J12" s="1"/>
@@ -5247,12 +5310,20 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="67">
+        <v>44985</v>
+      </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="77">
+        <v>862118021731168</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="48"/>
       <c r="J13" s="1"/>
@@ -5276,12 +5347,20 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="67">
+        <v>44985</v>
+      </c>
       <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="77">
+        <v>865904028268610</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="48"/>
       <c r="J14" s="1"/>
@@ -6581,13 +6660,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6599,6 +6671,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6609,8 +6688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6642,43 +6721,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6723,58 +6802,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -6805,17 +6884,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6827,14 +6906,14 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="92">
-        <v>862205051234948</v>
+        <v>79</v>
+      </c>
+      <c r="E6" s="77">
+        <v>866104021784791</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="68"/>
@@ -6866,14 +6945,14 @@
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="92">
-        <v>862205051196444</v>
+        <v>79</v>
+      </c>
+      <c r="E7" s="77">
+        <v>862631034802560</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="68"/>
@@ -6903,16 +6982,14 @@
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="92">
-        <v>862205051216804</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E8" s="77">
+        <v>861694031111675</v>
+      </c>
+      <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
@@ -6942,16 +7019,16 @@
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="92">
-        <v>862205051184069</v>
+        <v>79</v>
+      </c>
+      <c r="E9" s="77">
+        <v>863586032938692</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="48"/>
@@ -6981,14 +7058,14 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="92">
-        <v>862205051170787</v>
+        <v>79</v>
+      </c>
+      <c r="E10" s="77">
+        <v>862631037509907</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
@@ -7018,16 +7095,14 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="92">
-        <v>862205051232884</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E11" s="77">
+        <v>861694031767906</v>
+      </c>
+      <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="54"/>
@@ -7057,16 +7132,16 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="92">
-        <v>862205051216549</v>
+        <v>79</v>
+      </c>
+      <c r="E12" s="77">
+        <v>862631034730613</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="54"/>
@@ -7098,14 +7173,14 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="92">
-        <v>862205051235903</v>
+        <v>79</v>
+      </c>
+      <c r="E13" s="77">
+        <v>863586032792446</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="48"/>
@@ -7135,14 +7210,16 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="92">
-        <v>862205051185538</v>
-      </c>
-      <c r="F14" s="64"/>
+        <v>79</v>
+      </c>
+      <c r="E14" s="77">
+        <v>861694031127853</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="48"/>
@@ -7172,16 +7249,14 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="92">
-        <v>862205051232744</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E15" s="77">
+        <v>862631034704824</v>
+      </c>
+      <c r="F15" s="64"/>
       <c r="G15" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="48"/>
@@ -7206,12 +7281,20 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="67">
+        <v>44985</v>
+      </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
+      <c r="D16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="77">
+        <v>861694031109448</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="54"/>
       <c r="J16" s="1"/>
@@ -7235,12 +7318,20 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="67">
+        <v>44985</v>
+      </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="77">
+        <v>866104022270592</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="54"/>
       <c r="J17" s="1"/>
@@ -8453,13 +8544,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8471,6 +8555,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8481,8 +8572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8514,43 +8605,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8595,99 +8686,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="81" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="73" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8699,28 +8790,42 @@
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>68</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E6" s="77">
+        <v>868183037788622</v>
+      </c>
+      <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H6" s="74"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>37</v>
+      </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
       <c r="U6" s="83" t="s">
@@ -8735,22 +8840,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B7" s="67"/>
       <c r="C7" s="67"/>
-      <c r="D7" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>64</v>
-      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="68"/>
       <c r="J7" s="37"/>
@@ -8774,22 +8869,12 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B8" s="67"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>64</v>
-      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
       <c r="J8" s="39"/>
@@ -8813,22 +8898,12 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B9" s="67"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>64</v>
-      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="1"/>
       <c r="I9" s="48"/>
       <c r="J9" s="39"/>
@@ -8852,22 +8927,12 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B10" s="67"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
       <c r="J10" s="39"/>
@@ -8891,22 +8956,12 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="67">
-        <v>44985</v>
-      </c>
+      <c r="B11" s="67"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>64</v>
-      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="37"/>
       <c r="I11" s="54"/>
       <c r="J11" s="39"/>
@@ -9150,7 +9205,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="73" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -9186,7 +9241,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -9331,7 +9386,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="73" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -9591,7 +9646,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -9719,7 +9774,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10295,13 +10350,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10313,6 +10361,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10320,6 +10375,3922 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="77">
+        <v>862205051234948</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="77">
+        <v>862205051196444</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="77">
+        <v>862205051216804</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="77">
+        <v>862205051184069</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="77">
+        <v>862205051170787</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="77">
+        <v>862205051232884</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="70"/>
+      <c r="O11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="77">
+        <v>862205051216549</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="77">
+        <v>862205051235903</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="77">
+        <v>862205051185538</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="77">
+        <v>862205051232744</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>9</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>10</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>11</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
+        <v>7</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <v>8</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <v>9</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
+        <v>10</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <v>11</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -10356,43 +14327,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10437,58 +14408,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="91" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10513,23 +14484,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12080,6 +16051,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12091,13 +16069,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="49" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
@@ -348,9 +348,6 @@
     <t>SL: 10</t>
   </si>
   <si>
-    <t>Thẻ nhớ 64GB</t>
-  </si>
-  <si>
     <t>Lỗi 7 thẻ, khắc phục lỗi 3 thẻ</t>
   </si>
   <si>
@@ -396,7 +393,76 @@
     <t>Thiết bị hoạt động bình thường</t>
   </si>
   <si>
-    <t>Test lại thiết bị</t>
+    <t>Thẻ nhớ 64GB, 2 thẻ không phải VNET xuất bán</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim, cam mặt trước</t>
+  </si>
+  <si>
+    <t>Nạp lại cấu hình, test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thay khay sim + cam, nạp lại cấu hình</t>
+  </si>
+  <si>
+    <t>Thiết bị sai ip,port</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim, nạp lại cấu hình</t>
+  </si>
+  <si>
+    <t>C43_V3322_T210926.95</t>
+  </si>
+  <si>
+    <t>Nâng cấp phần mềm, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Trạng thái không quay được số</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module GSM</t>
+  </si>
+  <si>
+    <t>SE.Demo.00029.111215</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.161217</t>
+  </si>
+  <si>
+    <t>Lỗi led GPS, Memory</t>
+  </si>
+  <si>
+    <t>Thay led, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Sim lỗi, hết hạn dv</t>
+  </si>
+  <si>
+    <t>Lỗi anten GSM</t>
+  </si>
+  <si>
+    <t>Thay anten GSM, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -614,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,6 +928,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,15 +986,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,1819 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="75">
-        <v>866192037820238</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="66"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="66"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="66"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>2</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
@@ -3067,43 +1327,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3148,99 +1408,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="82" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78" t="s">
+      <c r="J5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,26 +1510,36 @@
       <c r="B6" s="67">
         <v>44985</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44991</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="E6" s="75">
+        <v>866192037820238</v>
       </c>
       <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>76</v>
+      </c>
       <c r="H6" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="69"/>
+        <v>94</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>105</v>
+      </c>
       <c r="L6" s="69" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="69" t="s">
@@ -3279,12 +1549,14 @@
         <v>90</v>
       </c>
       <c r="Q6" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="64"/>
+        <v>107</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>108</v>
+      </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3315,7 +1587,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3344,7 +1616,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3373,7 +1645,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3402,7 +1674,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3431,7 +1703,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3460,7 +1732,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3491,7 +1763,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3520,7 +1792,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3549,7 +1821,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3578,7 +1850,1811 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>2</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="100"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101"/>
+      <c r="B5" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C6" s="67">
+        <v>44991</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4867,43 +4943,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4948,58 +5024,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -5030,17 +5106,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5074,7 +5150,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5113,7 +5189,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5150,7 +5226,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5187,7 +5263,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5224,7 +5300,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5261,7 +5337,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5298,7 +5374,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5337,7 +5413,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5374,7 +5450,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5403,7 +5479,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5432,7 +5508,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6688,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6721,43 +6797,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6802,58 +6878,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -6884,17 +6960,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6915,20 +6991,34 @@
       <c r="G6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>128</v>
+      </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="L6" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="87">
+        <v>250000</v>
+      </c>
       <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="Q6" s="71"/>
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6955,19 +7045,31 @@
         <v>76</v>
       </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="37"/>
+      <c r="I7" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>131</v>
+      </c>
       <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="L7" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="87">
+        <v>250000</v>
+      </c>
       <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
+      <c r="P7" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6991,20 +7093,40 @@
       <c r="G8" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="H8" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>108</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7030,20 +7152,40 @@
       <c r="G9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="H9" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7067,20 +7209,20 @@
       <c r="G10" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="69"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7100,24 +7242,46 @@
       <c r="E11" s="77">
         <v>861694031767906</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="H11" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="70"/>
+      <c r="O11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>108</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7143,20 +7307,20 @@
       <c r="G12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7178,24 +7342,46 @@
       <c r="E13" s="77">
         <v>863586032792446</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="H13" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7234,7 +7420,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7271,7 +7457,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7308,7 +7494,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7328,21 +7514,43 @@
       <c r="E17" s="77">
         <v>866104022270592</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G17" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
@@ -7435,7 +7643,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7499,7 +7707,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -7776,7 +7984,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7904,7 +8112,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7968,7 +8176,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8605,43 +8813,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8686,58 +8894,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -8768,17 +8976,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8788,7 +8996,9 @@
       <c r="B6" s="67">
         <v>44985</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44991</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>81</v>
       </c>
@@ -8828,7 +9038,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8859,7 +9069,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8888,7 +9098,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8917,7 +9127,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8946,7 +9156,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8975,7 +9185,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9004,7 +9214,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9035,7 +9245,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9064,7 +9274,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9093,7 +9303,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9122,7 +9332,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10378,8 +10588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10411,43 +10621,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -10492,58 +10702,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -10574,17 +10784,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10594,7 +10804,9 @@
       <c r="B6" s="67">
         <v>44985</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44991</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>56</v>
       </c>
@@ -10636,7 +10848,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10651,7 +10863,9 @@
       <c r="B7" s="67">
         <v>44985</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>44991</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>56</v>
       </c>
@@ -10693,7 +10907,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10706,7 +10920,9 @@
       <c r="B8" s="67">
         <v>44985</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="67">
+        <v>44991</v>
+      </c>
       <c r="D8" s="64" t="s">
         <v>56</v>
       </c>
@@ -10750,7 +10966,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10763,7 +10979,9 @@
       <c r="B9" s="67">
         <v>44985</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="67">
+        <v>44991</v>
+      </c>
       <c r="D9" s="64" t="s">
         <v>56</v>
       </c>
@@ -10777,10 +10995,10 @@
         <v>64</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="69" t="s">
         <v>93</v>
@@ -10809,7 +11027,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10822,7 +11040,9 @@
       <c r="B10" s="67">
         <v>44985</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="67">
+        <v>44991</v>
+      </c>
       <c r="D10" s="64" t="s">
         <v>56</v>
       </c>
@@ -10864,7 +11084,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10877,7 +11097,9 @@
       <c r="B11" s="67">
         <v>44985</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="67">
+        <v>44991</v>
+      </c>
       <c r="D11" s="64" t="s">
         <v>56</v>
       </c>
@@ -10921,7 +11143,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10934,7 +11156,9 @@
       <c r="B12" s="67">
         <v>44985</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="67">
+        <v>44991</v>
+      </c>
       <c r="D12" s="64" t="s">
         <v>56</v>
       </c>
@@ -10978,7 +11202,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10993,7 +11217,9 @@
       <c r="B13" s="67">
         <v>44985</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="67">
+        <v>44991</v>
+      </c>
       <c r="D13" s="64" t="s">
         <v>56</v>
       </c>
@@ -11015,10 +11241,10 @@
         <v>91</v>
       </c>
       <c r="L13" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="69" t="s">
         <v>111</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>112</v>
       </c>
       <c r="N13" s="70"/>
       <c r="O13" s="69" t="s">
@@ -11028,14 +11254,14 @@
         <v>90</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11048,7 +11274,9 @@
       <c r="B14" s="67">
         <v>44985</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="67">
+        <v>44991</v>
+      </c>
       <c r="D14" s="64" t="s">
         <v>56</v>
       </c>
@@ -11090,7 +11318,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11103,7 +11331,9 @@
       <c r="B15" s="67">
         <v>44985</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="67">
+        <v>44991</v>
+      </c>
       <c r="D15" s="64" t="s">
         <v>56</v>
       </c>
@@ -11147,7 +11377,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11176,7 +11406,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12432,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12465,43 +12695,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -12546,58 +12776,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="96"/>
+      <c r="L4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -12628,17 +12858,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12669,16 +12899,28 @@
         <v>84</v>
       </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="72"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12715,10 +12957,10 @@
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" s="70"/>
       <c r="O7" s="69" t="s">
@@ -12735,7 +12977,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12762,19 +13004,35 @@
         <v>64</v>
       </c>
       <c r="H8" s="80"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="I8" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>84</v>
+      </c>
       <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="L8" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>117</v>
+      </c>
       <c r="N8" s="70"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12801,19 +13059,35 @@
         <v>64</v>
       </c>
       <c r="H9" s="70"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>84</v>
+      </c>
       <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
+      <c r="L9" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="N9" s="70"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12840,19 +13114,35 @@
         <v>76</v>
       </c>
       <c r="H10" s="70"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="69"/>
+      <c r="I10" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>120</v>
+      </c>
       <c r="N10" s="70"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12879,19 +13169,37 @@
         <v>64</v>
       </c>
       <c r="H11" s="64"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
+      <c r="I11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>122</v>
+      </c>
       <c r="N11" s="70"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12901,7 +13209,7 @@
       <c r="A12" s="72">
         <v>7</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="67"/>
       <c r="D12" s="64"/>
       <c r="E12" s="77"/>
@@ -12920,7 +13228,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12932,11 +13240,11 @@
       <c r="A13" s="72">
         <v>8</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="67"/>
       <c r="D13" s="64"/>
       <c r="E13" s="77"/>
-      <c r="F13" s="100"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="64"/>
       <c r="H13" s="70"/>
       <c r="I13" s="81"/>
@@ -12951,7 +13259,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12961,7 +13269,7 @@
       <c r="A14" s="72">
         <v>9</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="67"/>
       <c r="D14" s="64"/>
       <c r="E14" s="77"/>
@@ -12980,7 +13288,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12990,11 +13298,11 @@
       <c r="A15" s="72">
         <v>10</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="67"/>
       <c r="D15" s="64"/>
       <c r="E15" s="77"/>
-      <c r="F15" s="100"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="64"/>
       <c r="H15" s="70"/>
       <c r="I15" s="81"/>
@@ -13009,7 +13317,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13019,11 +13327,11 @@
       <c r="A16" s="72">
         <v>11</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="67"/>
       <c r="D16" s="64"/>
       <c r="E16" s="77"/>
-      <c r="F16" s="100"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="64"/>
       <c r="H16" s="70"/>
       <c r="I16" s="68"/>
@@ -13038,7 +13346,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13157,7 +13465,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13189,7 +13497,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13498,7 +13806,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13530,7 +13838,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -13626,7 +13934,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13658,7 +13966,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13690,7 +13998,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14327,43 +14635,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -14408,58 +14716,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -14484,23 +14792,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14526,7 +14834,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14557,7 +14865,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14586,7 +14894,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14615,7 +14923,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -14644,7 +14952,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14673,7 +14981,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14702,7 +15010,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -14733,7 +15041,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14762,7 +15070,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14791,7 +15099,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14820,7 +15128,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="49" r:id="rId1"/>
@@ -6764,7 +6764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -12662,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12878,7 +12878,9 @@
       <c r="B6" s="67">
         <v>44985</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>44999</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>63</v>
       </c>
@@ -12918,7 +12920,7 @@
       <c r="R6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="66"/>
       <c r="U6" s="88" t="s">
         <v>18</v>
@@ -12935,7 +12937,9 @@
       <c r="B7" s="67">
         <v>44985</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>44999</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>63</v>
       </c>
@@ -12975,7 +12979,7 @@
       <c r="R7" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="66"/>
       <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
@@ -12990,7 +12994,9 @@
       <c r="B8" s="67">
         <v>44985</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="67">
+        <v>44999</v>
+      </c>
       <c r="D8" s="64" t="s">
         <v>63</v>
       </c>
@@ -13024,13 +13030,13 @@
       <c r="P8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="66"/>
       <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
@@ -13045,7 +13051,9 @@
       <c r="B9" s="67">
         <v>44985</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="67">
+        <v>44999</v>
+      </c>
       <c r="D9" s="64" t="s">
         <v>63</v>
       </c>
@@ -13079,13 +13087,13 @@
       <c r="P9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="66"/>
       <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
@@ -13100,7 +13108,9 @@
       <c r="B10" s="67">
         <v>44985</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="67">
+        <v>44999</v>
+      </c>
       <c r="D10" s="64" t="s">
         <v>63</v>
       </c>
@@ -13134,13 +13144,13 @@
       <c r="P10" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="66"/>
       <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
@@ -13155,7 +13165,9 @@
       <c r="B11" s="67">
         <v>44985</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="67">
+        <v>44999</v>
+      </c>
       <c r="D11" s="64" t="s">
         <v>63</v>
       </c>
@@ -13191,13 +13203,13 @@
       <c r="P11" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="66"/>
       <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
@@ -13224,9 +13236,9 @@
       <c r="N12" s="70"/>
       <c r="O12" s="69"/>
       <c r="P12" s="70"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="72"/>
       <c r="T12" s="66"/>
       <c r="U12" s="88" t="s">
         <v>19</v>
@@ -13255,9 +13267,9 @@
       <c r="N13" s="70"/>
       <c r="O13" s="69"/>
       <c r="P13" s="70"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="72"/>
       <c r="T13" s="66"/>
       <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang2/02.XuLyBH/XLBH2302_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="49" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="158">
   <si>
     <t>STT</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Thiết bị lỗi module GPS</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>SE.3.00.---02.161217</t>
   </si>
   <si>
@@ -456,13 +453,76 @@
     <t>Sim lỗi</t>
   </si>
   <si>
-    <t>Sim lỗi, hết hạn dv</t>
-  </si>
-  <si>
     <t>Lỗi anten GSM</t>
   </si>
   <si>
     <t>Thay anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>Sim lỗi, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Main oxi hóa nặng</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001410301635</t>
+  </si>
+  <si>
+    <t>Mất nguồn MCU</t>
+  </si>
+  <si>
+    <t>Câu lại nguồn, thay IC nguồn</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001504181403, Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001310221448</t>
+  </si>
+  <si>
+    <t>X.2.27</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14848</t>
+  </si>
+  <si>
+    <t>ID cũ: 1505111503</t>
+  </si>
+  <si>
+    <t>Thiết bị treo reset</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00036.250815</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa</t>
   </si>
 </sst>
 </file>
@@ -680,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,6 +1001,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,43 +1396,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1408,58 +1477,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
@@ -1490,17 +1559,17 @@
       <c r="K5" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1625,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1587,7 +1656,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1616,7 +1685,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1645,7 +1714,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1674,7 +1743,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1703,7 +1772,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +1801,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1763,7 +1832,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1792,7 +1861,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1890,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1850,7 +1919,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3109,7 +3178,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3141,43 +3210,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3222,58 +3291,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
@@ -3304,17 +3373,17 @@
       <c r="K5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,7 +3429,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3391,7 +3460,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3420,7 +3489,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +3518,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3478,7 +3547,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3507,7 +3576,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3536,7 +3605,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3567,7 +3636,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3596,7 +3665,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3625,7 +3694,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3654,7 +3723,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4910,8 +4979,2046 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I14"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="56" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="45"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="46"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="46"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C6" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="77">
+        <v>865904028279187</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="79"/>
+      <c r="I6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="72"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="66"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C7" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="77">
+        <v>867330022300381</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="72"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="66"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C8" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="77">
+        <v>867330024350327</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="72"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C9" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="77">
+        <v>864161020990953</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="72"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C10" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="77">
+        <v>866762026904209</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C11" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="77">
+        <v>866762024322040</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="70"/>
+      <c r="O11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="72"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C12" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="77">
+        <v>864161026908140</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="72"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="66"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C13" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="77">
+        <v>862118021731168</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="72"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="66"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C14" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="77">
+        <v>865904028268610</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="72"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="66"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="66"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="66"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>8</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>4</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>9</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="60"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4943,43 +7050,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -5024,58 +7131,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -5106,17 +7213,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5126,31 +7233,47 @@
       <c r="B6" s="67">
         <v>44985</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>45008</v>
+      </c>
       <c r="D6" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="77">
-        <v>865904028279187</v>
+        <v>866104021784791</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>128</v>
+      </c>
       <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
+      <c r="L6" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="O6" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="Q6" s="71"/>
       <c r="R6" s="64"/>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5165,31 +7288,45 @@
       <c r="B7" s="67">
         <v>44985</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>45008</v>
+      </c>
       <c r="D7" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="77">
-        <v>867330022300381</v>
+        <v>862631034802560</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="64"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="37"/>
+      <c r="I7" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>130</v>
+      </c>
       <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
+      <c r="L7" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5202,31 +7339,53 @@
       <c r="B8" s="67">
         <v>44985</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="67">
+        <v>45008</v>
+      </c>
       <c r="D8" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="77">
-        <v>867330024350327</v>
+        <v>861694031111675</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="72"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5239,31 +7398,55 @@
       <c r="B9" s="67">
         <v>44985</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="67">
+        <v>45008</v>
+      </c>
       <c r="D9" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="77">
-        <v>864161020990953</v>
-      </c>
-      <c r="F9" s="64"/>
+        <v>863586032938692</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="72"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5276,31 +7459,49 @@
       <c r="B10" s="67">
         <v>44985</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="67">
+        <v>45008</v>
+      </c>
       <c r="D10" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="77">
-        <v>866762026904209</v>
+        <v>862631037509907</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="87"/>
+      <c r="O10" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5313,31 +7514,55 @@
       <c r="B11" s="67">
         <v>44985</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="67">
+        <v>45008</v>
+      </c>
       <c r="D11" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="77">
-        <v>866762024322040</v>
-      </c>
-      <c r="F11" s="64"/>
+        <v>861694031767906</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" s="70"/>
+      <c r="O11" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" s="72"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5350,31 +7575,55 @@
       <c r="B12" s="67">
         <v>44985</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="67">
+        <v>45008</v>
+      </c>
       <c r="D12" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="77">
-        <v>864161026908140</v>
-      </c>
-      <c r="F12" s="64"/>
+        <v>862631034730613</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="72"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5389,31 +7638,55 @@
       <c r="B13" s="67">
         <v>44985</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="67">
+        <v>45008</v>
+      </c>
       <c r="D13" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="77">
-        <v>862118021731168</v>
-      </c>
-      <c r="F13" s="64"/>
+        <v>863586032792446</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="72"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5426,31 +7699,43 @@
       <c r="B14" s="67">
         <v>44985</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="67">
+        <v>45008</v>
+      </c>
       <c r="D14" s="64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="77">
-        <v>865904028268610</v>
-      </c>
-      <c r="F14" s="64"/>
+        <v>861694031127853</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="72"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5460,26 +7745,54 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C15" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="77">
+        <v>862631034704824</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="72"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5489,26 +7802,54 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C16" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="77">
+        <v>861694031109448</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="72"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5518,24 +7859,56 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="67">
+        <v>44985</v>
+      </c>
+      <c r="C17" s="67">
+        <v>45008</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="77">
+        <v>866104022270592</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="70"/>
+      <c r="O17" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="72"/>
       <c r="T17" s="13"/>
       <c r="U17" s="66"/>
       <c r="V17" s="14"/>
@@ -5545,24 +7918,24 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -5572,24 +7945,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="72"/>
       <c r="T19" s="13"/>
       <c r="U19" s="73" t="s">
         <v>39</v>
@@ -5603,31 +7976,31 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="72"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5635,24 +8008,24 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="72"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
@@ -5691,7 +8064,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5968,7 +8341,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6096,7 +8469,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6128,7 +8501,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6160,7 +8533,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6278,2023 +8651,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="25" customWidth="1"/>
-    <col min="12" max="12" width="56" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="45"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="73" t="s">
         <v>4</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="77">
-        <v>866104021784791</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="87">
-        <v>250000</v>
-      </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="66"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="77">
-        <v>862631034802560</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="N7" s="87">
-        <v>250000</v>
-      </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="77">
-        <v>861694031111675</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="77">
-        <v>863586032938692</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="77">
-        <v>862631037509907</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="77">
-        <v>861694031767906</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="77">
-        <v>862631034730613</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="77">
-        <v>863586032792446</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="77">
-        <v>861694031127853</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="77">
-        <v>862631034704824</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="66"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="77">
-        <v>861694031109448</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="66"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="67">
-        <v>44985</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="77">
-        <v>866104022270592</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>7</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -8813,43 +9170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8894,58 +9251,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -8976,17 +9333,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9038,7 +9395,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -9069,7 +9426,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -9098,7 +9455,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -9127,7 +9484,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9156,7 +9513,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9185,7 +9542,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9214,7 +9571,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9245,7 +9602,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9274,7 +9631,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9303,7 +9660,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9332,7 +9689,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10621,43 +10978,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -10702,58 +11059,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="73" t="s">
         <v>1</v>
       </c>
@@ -10784,17 +11141,17 @@
       <c r="K5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +11205,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10907,7 +11264,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10966,7 +11323,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11027,7 +11384,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11084,7 +11441,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11143,7 +11500,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11202,7 +11559,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11261,7 +11618,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11318,7 +11675,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11377,7 +11734,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11406,7 +11763,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12662,8 +13019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12695,43 +13052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -12776,58 +13133,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -12858,17 +13215,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12922,7 +13279,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12981,7 +13338,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13038,7 +13395,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13095,7 +13452,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13152,7 +13509,7 @@
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13211,7 +13568,7 @@
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13240,7 +13597,7 @@
       <c r="R12" s="64"/>
       <c r="S12" s="72"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13271,7 +13628,7 @@
       <c r="R13" s="64"/>
       <c r="S13" s="72"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13300,7 +13657,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13329,7 +13686,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13358,7 +13715,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14647,43 +15004,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -14728,58 +15085,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -14804,23 +15161,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14846,7 +15203,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14877,7 +15234,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14906,7 +15263,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14935,7 +15292,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -14964,7 +15321,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14993,7 +15350,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15022,7 +15379,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15053,7 +15410,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15082,7 +15439,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15111,7 +15468,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15140,7 +15497,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
